--- a/com.bmwusa/src/test/resources/test_data.xlsx
+++ b/com.bmwusa/src/test/resources/test_data.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="140" windowWidth="19140" windowHeight="7090"/>
+    <workbookView xWindow="80" yWindow="140" windowWidth="19140" windowHeight="7090" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dosignIn" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="doSearch" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>email</t>
   </si>
@@ -46,6 +46,27 @@
   </si>
   <si>
     <t xml:space="preserve">Sarafaty07@gmail.com </t>
+  </si>
+  <si>
+    <t>BMW M4</t>
+  </si>
+  <si>
+    <t>BMW M8</t>
+  </si>
+  <si>
+    <t>BMW X2</t>
+  </si>
+  <si>
+    <t>BMW X5</t>
+  </si>
+  <si>
+    <t>BMW i4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       year</t>
+  </si>
+  <si>
+    <t>model</t>
   </si>
 </sst>
 </file>
@@ -392,7 +413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -459,12 +480,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>2022</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/com.bmwusa/src/test/resources/test_data.xlsx
+++ b/com.bmwusa/src/test/resources/test_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>email</t>
   </si>
@@ -57,16 +57,34 @@
     <t>BMW X2</t>
   </si>
   <si>
+    <t xml:space="preserve">       year</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>MBW X6</t>
+  </si>
+  <si>
+    <t>BMW I7</t>
+  </si>
+  <si>
+    <t>BMW X7</t>
+  </si>
+  <si>
+    <t>BMW C5</t>
+  </si>
+  <si>
+    <t>BMW X4</t>
+  </si>
+  <si>
+    <t>BMW I4</t>
+  </si>
+  <si>
+    <t>BMW X3M</t>
+  </si>
+  <si>
     <t>BMW X5</t>
-  </si>
-  <si>
-    <t>BMW i4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       year</t>
-  </si>
-  <si>
-    <t>model</t>
   </si>
 </sst>
 </file>
@@ -480,9 +498,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -492,10 +512,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -524,7 +544,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>2023</v>
@@ -532,10 +552,66 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>2017</v>
       </c>
     </row>
   </sheetData>
